--- a/4月/4月份运费表(4.24).xlsx
+++ b/4月/4月份运费表(4.24).xlsx
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="116">
   <si>
     <t>日期</t>
   </si>
@@ -697,6 +697,15 @@
   </si>
   <si>
     <t>范碧荣</t>
+  </si>
+  <si>
+    <t>UK7.5-1</t>
+  </si>
+  <si>
+    <t>杨丛敏</t>
+  </si>
+  <si>
+    <t>UK15-1</t>
   </si>
 </sst>
 </file>
@@ -780,27 +789,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,14 +812,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,63 +864,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -910,15 +902,32 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -961,7 +970,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +1012,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,19 +1072,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,49 +1102,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,49 +1114,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,24 +1145,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,11 +1173,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,32 +1218,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1238,26 +1256,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,10 +1276,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1279,133 +1288,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1415,7 +1424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1539,11 +1548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="58" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1555,10 +1559,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1888,12 +1888,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E253" sqref="E253"/>
+      <selection pane="bottomLeft" activeCell="H258" sqref="H258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7966,7 +7966,7 @@
       <c r="A242" s="48">
         <v>43579</v>
       </c>
-      <c r="B242" s="51" t="s">
+      <c r="B242" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C242" s="41" t="s">
@@ -7990,13 +7990,13 @@
       <c r="A243" s="48">
         <v>43579</v>
       </c>
-      <c r="B243" s="52" t="s">
+      <c r="B243" s="47" t="s">
         <v>112</v>
       </c>
       <c r="C243" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D243" s="53">
+      <c r="D243" s="13">
         <v>9</v>
       </c>
       <c r="E243" s="16">
@@ -8011,175 +8011,175 @@
       <c r="I243" s="20"/>
     </row>
     <row r="244" s="3" customFormat="1" spans="1:10">
-      <c r="A244" s="54">
+      <c r="A244" s="51">
         <v>43579</v>
       </c>
-      <c r="B244" s="55" t="s">
+      <c r="B244" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C244" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D244" s="57">
+      <c r="C244" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" s="54">
         <v>6</v>
       </c>
       <c r="E244" s="25">
         <v>21</v>
       </c>
-      <c r="F244" s="58">
+      <c r="F244" s="55">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="G244" s="59"/>
-      <c r="H244" s="58"/>
-      <c r="I244" s="60"/>
-      <c r="J244" s="61"/>
+      <c r="G244" s="54"/>
+      <c r="H244" s="55"/>
+      <c r="I244" s="52"/>
+      <c r="J244" s="56"/>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="54">
+      <c r="A245" s="51">
         <v>43579</v>
       </c>
-      <c r="B245" s="55" t="s">
+      <c r="B245" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C245" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D245" s="57">
+      <c r="C245" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="54">
         <v>6</v>
       </c>
       <c r="E245" s="25">
         <v>7</v>
       </c>
-      <c r="F245" s="58">
+      <c r="F245" s="55">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="G245" s="59"/>
-      <c r="H245" s="58"/>
-      <c r="I245" s="60"/>
+      <c r="G245" s="54"/>
+      <c r="H245" s="55"/>
+      <c r="I245" s="52"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="54">
+      <c r="A246" s="51">
         <v>43579</v>
       </c>
-      <c r="B246" s="55" t="s">
+      <c r="B246" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C246" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D246" s="57">
+      <c r="C246" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="54">
         <v>1</v>
       </c>
       <c r="E246" s="25">
         <v>13</v>
       </c>
-      <c r="F246" s="58">
+      <c r="F246" s="55">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="G246" s="59"/>
-      <c r="H246" s="58"/>
-      <c r="I246" s="60"/>
+      <c r="G246" s="54"/>
+      <c r="H246" s="55"/>
+      <c r="I246" s="52"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="54">
+      <c r="A247" s="51">
         <v>43579</v>
       </c>
-      <c r="B247" s="55" t="s">
+      <c r="B247" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C247" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D247" s="57">
+      <c r="C247" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="54">
         <v>6</v>
       </c>
       <c r="E247" s="25">
         <v>7</v>
       </c>
-      <c r="F247" s="58">
+      <c r="F247" s="55">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="G247" s="59"/>
-      <c r="H247" s="58"/>
-      <c r="I247" s="60"/>
+      <c r="G247" s="54"/>
+      <c r="H247" s="55"/>
+      <c r="I247" s="52"/>
     </row>
     <row r="248" spans="1:9">
-      <c r="A248" s="54">
+      <c r="A248" s="51">
         <v>43579</v>
       </c>
-      <c r="B248" s="55" t="s">
+      <c r="B248" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C248" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D248" s="57">
+      <c r="C248" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" s="54">
         <v>2</v>
       </c>
       <c r="E248" s="25">
         <v>10</v>
       </c>
-      <c r="F248" s="58">
+      <c r="F248" s="55">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="G248" s="59"/>
-      <c r="H248" s="58"/>
-      <c r="I248" s="60"/>
+      <c r="G248" s="54"/>
+      <c r="H248" s="55"/>
+      <c r="I248" s="52"/>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="54">
+      <c r="A249" s="51">
         <v>43579</v>
       </c>
-      <c r="B249" s="55" t="s">
+      <c r="B249" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C249" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D249" s="57">
+      <c r="C249" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="54">
         <v>1</v>
       </c>
       <c r="E249" s="25">
         <v>13</v>
       </c>
-      <c r="F249" s="58">
+      <c r="F249" s="55">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="G249" s="59"/>
-      <c r="H249" s="58"/>
-      <c r="I249" s="60"/>
+      <c r="G249" s="54"/>
+      <c r="H249" s="55"/>
+      <c r="I249" s="52"/>
     </row>
     <row r="250" spans="1:9">
-      <c r="A250" s="54">
+      <c r="A250" s="51">
         <v>43579</v>
       </c>
-      <c r="B250" s="55" t="s">
+      <c r="B250" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C250" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D250" s="57">
+      <c r="C250" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="54">
         <v>2</v>
       </c>
       <c r="E250" s="25">
         <v>13</v>
       </c>
-      <c r="F250" s="58">
+      <c r="F250" s="55">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="G250" s="59"/>
-      <c r="H250" s="58"/>
-      <c r="I250" s="60"/>
-    </row>
-    <row r="251" s="2" customFormat="1" spans="1:9">
+      <c r="G250" s="54"/>
+      <c r="H250" s="55"/>
+      <c r="I250" s="52"/>
+    </row>
+    <row r="251" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A251" s="42">
         <v>43579</v>
       </c>
@@ -8198,6 +8198,96 @@
         <v>94</v>
       </c>
     </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="51">
+        <v>43579</v>
+      </c>
+      <c r="B252" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C252" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="54">
+        <v>10</v>
+      </c>
+      <c r="E252" s="25">
+        <v>7</v>
+      </c>
+      <c r="F252" s="55">
+        <f t="shared" ref="F252:F254" si="9">D252*E252</f>
+        <v>70</v>
+      </c>
+      <c r="G252" s="54"/>
+      <c r="H252" s="55"/>
+      <c r="I252" s="52"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="51">
+        <v>43579</v>
+      </c>
+      <c r="B253" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C253" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="54"/>
+      <c r="E253" s="25"/>
+      <c r="F253" s="55"/>
+      <c r="G253" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H253" s="55">
+        <v>80</v>
+      </c>
+      <c r="I253" s="52"/>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="51">
+        <v>43579</v>
+      </c>
+      <c r="B254" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C254" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="54"/>
+      <c r="E254" s="25"/>
+      <c r="F254" s="55"/>
+      <c r="G254" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H254" s="55">
+        <v>140</v>
+      </c>
+      <c r="I254" s="52"/>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="51">
+        <v>43579</v>
+      </c>
+      <c r="B255" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C255" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="54">
+        <v>1</v>
+      </c>
+      <c r="E255" s="25">
+        <v>13</v>
+      </c>
+      <c r="F255" s="55">
+        <f>D255*E255</f>
+        <v>13</v>
+      </c>
+      <c r="G255" s="54"/>
+      <c r="H255" s="55"/>
+      <c r="I255" s="52"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
